--- a/docs/Excel Sheet/Daisy.xlsx
+++ b/docs/Excel Sheet/Daisy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Submerge\docs\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B214CFF-43A6-41A8-9D8C-1923884BD5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED5A159-4157-4CB3-85FF-DA80356A347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" activeTab="3" xr2:uid="{6E61877A-0A69-45F3-A9A4-B6B7A521CA23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="3" xr2:uid="{6E61877A-0A69-45F3-A9A4-B6B7A521CA23}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW POOL" sheetId="6" r:id="rId1"/>
@@ -7302,8 +7302,8 @@
   </sheetPr>
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9236,7 +9236,7 @@
       <c r="B181" s="520"/>
       <c r="C181" s="531">
         <f>CEILING('COST - NEW'!D344/'COST - NEW'!E344,10)+'COST - NEW'!E309</f>
-        <v>143930</v>
+        <v>147910</v>
       </c>
       <c r="D181" s="532"/>
       <c r="E181" s="153" t="s">
@@ -9286,11 +9286,11 @@
       </c>
       <c r="B191" s="349">
         <f>'COST - NEW'!E353*10</f>
-        <v>1.702864230474874</v>
+        <v>1.7161884155427445</v>
       </c>
       <c r="C191" s="525">
         <f>SUM(C181:D190)</f>
-        <v>133930</v>
+        <v>137910</v>
       </c>
       <c r="D191" s="526"/>
       <c r="E191" s="153" t="s">
@@ -13611,15 +13611,15 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.109375" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="4"/>
+    <col min="3" max="3" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
@@ -35589,7 +35589,7 @@
       <c r="E7" s="573"/>
       <c r="F7" s="543">
         <f ca="1">TODAY()</f>
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="G7" s="544"/>
     </row>
@@ -37244,7 +37244,7 @@
       <c r="D149" s="601"/>
       <c r="E149" s="105">
         <f>IF('NEW POOL'!C191-PROPOSAL!E148=0,"",'NEW POOL'!C191-E148)</f>
-        <v>60387.42</v>
+        <v>64367.42</v>
       </c>
       <c r="F149" s="73"/>
     </row>
@@ -37642,8 +37642,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E350" sqref="E350"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J281" sqref="J281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -41661,8 +41661,7 @@
         <v>0</v>
       </c>
       <c r="D288" s="21">
-        <f>INT!D24</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -41744,8 +41743,7 @@
         <v>1035</v>
       </c>
       <c r="D293" s="2">
-        <f>INT!D34</f>
-        <v>0</v>
+        <v>2506.62</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="15" thickBot="1">
@@ -41763,7 +41761,7 @@
       </c>
       <c r="F294" s="1">
         <f>SUM(D285:D293)</f>
-        <v>9271</v>
+        <v>12027.619999999999</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="15" thickBot="1">
@@ -41774,7 +41772,7 @@
       <c r="C295" s="157"/>
       <c r="D295" s="158">
         <f>IF('NEW POOL'!$B$21+'NEW POOL'!$B$22+'NEW POOL'!$B$23&gt;0,0,SUM(D285:D294))</f>
-        <v>9271</v>
+        <v>12027.619999999999</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15" thickBot="1">
@@ -42410,7 +42408,7 @@
       <c r="C344" s="161"/>
       <c r="D344" s="162">
         <f>(D330+D295+D282+D272+D229+D210+D177+D150+D121+D104+D71+D45+D23+D9+D261+D16+D77+D315+D323+D342+D301+D235)*1.01</f>
-        <v>99873.419361250009</v>
+        <v>102657.60556125001</v>
       </c>
       <c r="E344" s="178">
         <v>0.7</v>
@@ -42430,7 +42428,7 @@
       </c>
       <c r="D346" s="2">
         <f>'NEW POOL'!C191</f>
-        <v>133930</v>
+        <v>137910</v>
       </c>
       <c r="E346" s="183"/>
       <c r="G346" s="5">
@@ -42455,7 +42453,7 @@
       </c>
       <c r="D348" s="1">
         <f>-D344</f>
-        <v>-99873.419361250009</v>
+        <v>-102657.60556125001</v>
       </c>
       <c r="E348" s="4"/>
     </row>
@@ -42465,7 +42463,7 @@
       </c>
       <c r="D349" s="1">
         <f>-D346*E349</f>
-        <v>-3683.0749999999998</v>
+        <v>-3792.5250000000001</v>
       </c>
       <c r="E349" s="179">
         <v>2.75E-2</v>
@@ -42477,7 +42475,7 @@
       </c>
       <c r="D350" s="1">
         <f>-D346*0.029</f>
-        <v>-3883.9700000000003</v>
+        <v>-3999.3900000000003</v>
       </c>
       <c r="E350" s="4"/>
     </row>
@@ -42487,7 +42485,7 @@
       </c>
       <c r="D351" s="2">
         <f>-D346*E351</f>
-        <v>-3683.0749999999998</v>
+        <v>-3792.5250000000001</v>
       </c>
       <c r="E351" s="180">
         <f>E349</f>
@@ -42505,11 +42503,11 @@
       <c r="C353" s="190"/>
       <c r="D353" s="191">
         <f>SUM(D346:D352)</f>
-        <v>22806.460638749988</v>
+        <v>23667.954438749992</v>
       </c>
       <c r="E353" s="192">
         <f>D353/D346</f>
-        <v>0.1702864230474874</v>
+        <v>0.17161884155427445</v>
       </c>
     </row>
   </sheetData>
@@ -42960,7 +42958,7 @@
       <c r="C45" s="157"/>
       <c r="D45" s="360">
         <f>OTHER!D43</f>
-        <v>9271</v>
+        <v>12027.619999999999</v>
       </c>
       <c r="F45" s="184"/>
       <c r="H45" s="24"/>
@@ -43163,7 +43161,7 @@
       <c r="C71" s="363"/>
       <c r="D71" s="364">
         <f>SUM(D5:D70)</f>
-        <v>99034.573625000005</v>
+        <v>101791.193625</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="24"/>
@@ -43919,7 +43917,7 @@
       <c r="C43" s="157"/>
       <c r="D43" s="158">
         <f>IF('NEW POOL'!$B$21+'NEW POOL'!$B$22+'NEW POOL'!$B$23&gt;0,0,'COST - NEW'!D295)</f>
-        <v>9271</v>
+        <v>12027.619999999999</v>
       </c>
       <c r="F43" s="108">
         <v>4278</v>
@@ -43929,15 +43927,15 @@
       </c>
       <c r="I43" s="24">
         <f>D43</f>
-        <v>9271</v>
+        <v>12027.619999999999</v>
       </c>
       <c r="K43" s="1">
         <f>IF(EXC!$C$27=0,OTHER!I43-OTHER!F43,OTHER!I43-OTHER!G43)</f>
-        <v>3930.04</v>
+        <v>6686.6599999999989</v>
       </c>
       <c r="M43" s="1">
         <f>IF(D43=0,0,CEILING(K43/$M$3,320))</f>
-        <v>5760</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1">
@@ -44077,7 +44075,7 @@
       <c r="C59" s="161"/>
       <c r="D59" s="162">
         <f>SUM(D5:D58)</f>
-        <v>97564.573625000005</v>
+        <v>100321.193625</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="24">
@@ -44090,15 +44088,15 @@
       </c>
       <c r="I59" s="24">
         <f>SUM(I5:I50)</f>
-        <v>96264.573625000005</v>
+        <v>99021.193625</v>
       </c>
       <c r="K59" s="1">
         <f>I59-F59</f>
-        <v>63781.123625000007</v>
+        <v>66537.743625000003</v>
       </c>
       <c r="M59" s="1">
         <f>K59/$M$3</f>
-        <v>91115.890892857162</v>
+        <v>95053.919464285718</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -44335,7 +44333,7 @@
       </c>
       <c r="G18" s="395">
         <f>CEILING('COST - NEW'!D293,1)</f>
-        <v>0</v>
+        <v>2507</v>
       </c>
     </row>
   </sheetData>
